--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>156.321279</v>
+        <v>169.5951436666667</v>
       </c>
       <c r="H2">
-        <v>468.963837</v>
+        <v>508.785431</v>
       </c>
       <c r="I2">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="J2">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.11540266666667</v>
+        <v>13.07123266666667</v>
       </c>
       <c r="N2">
-        <v>39.346208</v>
+        <v>39.213698</v>
       </c>
       <c r="O2">
-        <v>0.1873358091563171</v>
+        <v>0.1468300556961012</v>
       </c>
       <c r="P2">
-        <v>0.1873358091563171</v>
+        <v>0.1468300556961012</v>
       </c>
       <c r="Q2">
-        <v>2050.216519453344</v>
+        <v>2216.81758200376</v>
       </c>
       <c r="R2">
-        <v>18451.9486750801</v>
+        <v>19951.35823803384</v>
       </c>
       <c r="S2">
-        <v>0.03827010162171713</v>
+        <v>0.03045636766884051</v>
       </c>
       <c r="T2">
-        <v>0.03827010162171714</v>
+        <v>0.03045636766884051</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>156.321279</v>
+        <v>169.5951436666667</v>
       </c>
       <c r="H3">
-        <v>468.963837</v>
+        <v>508.785431</v>
       </c>
       <c r="I3">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="J3">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>11.246559</v>
       </c>
       <c r="O3">
-        <v>0.05354730068242562</v>
+        <v>0.04211112362724598</v>
       </c>
       <c r="P3">
-        <v>0.05354730068242562</v>
+        <v>0.04211112362724597</v>
       </c>
       <c r="Q3">
-        <v>586.025495742987</v>
+        <v>635.7872631202143</v>
       </c>
       <c r="R3">
-        <v>5274.229461686883</v>
+        <v>5722.085368081929</v>
       </c>
       <c r="S3">
-        <v>0.0109389691587214</v>
+        <v>0.008734940936029733</v>
       </c>
       <c r="T3">
-        <v>0.0109389691587214</v>
+        <v>0.008734940936029731</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>156.321279</v>
+        <v>169.5951436666667</v>
       </c>
       <c r="H4">
-        <v>468.963837</v>
+        <v>508.785431</v>
       </c>
       <c r="I4">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="J4">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.20911666666666</v>
+        <v>40.10810466666667</v>
       </c>
       <c r="N4">
-        <v>60.62734999999999</v>
+        <v>120.324314</v>
       </c>
       <c r="O4">
-        <v>0.2886599305644203</v>
+        <v>0.4505370986999281</v>
       </c>
       <c r="P4">
-        <v>0.2886599305644204</v>
+        <v>0.450537098699928</v>
       </c>
       <c r="Q4">
-        <v>3159.114964793549</v>
+        <v>6802.139773141038</v>
       </c>
       <c r="R4">
-        <v>28432.03468314195</v>
+        <v>61219.25795826934</v>
       </c>
       <c r="S4">
-        <v>0.05896921110048041</v>
+        <v>0.09345309760596957</v>
       </c>
       <c r="T4">
-        <v>0.05896921110048043</v>
+        <v>0.09345309760596957</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>156.321279</v>
+        <v>169.5951436666667</v>
       </c>
       <c r="H5">
-        <v>468.963837</v>
+        <v>508.785431</v>
       </c>
       <c r="I5">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="J5">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.564941666666667</v>
+        <v>2.890218</v>
       </c>
       <c r="N5">
-        <v>13.694825</v>
+        <v>8.670653999999999</v>
       </c>
       <c r="O5">
-        <v>0.06520402481045086</v>
+        <v>0.03246601760797012</v>
       </c>
       <c r="P5">
-        <v>0.06520402481045087</v>
+        <v>0.03246601760797011</v>
       </c>
       <c r="Q5">
-        <v>713.597519893725</v>
+        <v>490.166936937986</v>
       </c>
       <c r="R5">
-        <v>6422.377679043525</v>
+        <v>4411.502432441874</v>
       </c>
       <c r="S5">
-        <v>0.01332027585584949</v>
+        <v>0.006734295402420414</v>
       </c>
       <c r="T5">
-        <v>0.0133202758558495</v>
+        <v>0.006734295402420413</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>156.321279</v>
+        <v>169.5951436666667</v>
       </c>
       <c r="H6">
-        <v>468.963837</v>
+        <v>508.785431</v>
       </c>
       <c r="I6">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="J6">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.371807</v>
+        <v>29.20445966666667</v>
       </c>
       <c r="N6">
-        <v>85.115421</v>
+        <v>87.61337900000001</v>
       </c>
       <c r="O6">
-        <v>0.4052529347863861</v>
+        <v>0.3280557043687546</v>
       </c>
       <c r="P6">
-        <v>0.4052529347863861</v>
+        <v>0.3280557043687546</v>
       </c>
       <c r="Q6">
-        <v>4435.117157781153</v>
+        <v>4952.934532875706</v>
       </c>
       <c r="R6">
-        <v>39916.05442003038</v>
+        <v>44576.41079588135</v>
       </c>
       <c r="S6">
-        <v>0.08278754108261807</v>
+        <v>0.06804727479498288</v>
       </c>
       <c r="T6">
-        <v>0.08278754108261809</v>
+        <v>0.06804727479498286</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>994.9895019999999</v>
       </c>
       <c r="I7">
-        <v>0.4334289932249598</v>
+        <v>0.4056457917095931</v>
       </c>
       <c r="J7">
-        <v>0.4334289932249598</v>
+        <v>0.405645791709593</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.11540266666667</v>
+        <v>13.07123266666667</v>
       </c>
       <c r="N7">
-        <v>39.346208</v>
+        <v>39.213698</v>
       </c>
       <c r="O7">
-        <v>0.1873358091563171</v>
+        <v>0.1468300556961012</v>
       </c>
       <c r="P7">
-        <v>0.1873358091563171</v>
+        <v>0.1468300556961012</v>
       </c>
       <c r="Q7">
-        <v>4349.895989278713</v>
+        <v>4335.2464271776</v>
       </c>
       <c r="R7">
-        <v>39149.06390350842</v>
+        <v>39017.2178445984</v>
       </c>
       <c r="S7">
-        <v>0.08119677115760573</v>
+        <v>0.05956099418960863</v>
       </c>
       <c r="T7">
-        <v>0.08119677115760573</v>
+        <v>0.05956099418960861</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>994.9895019999999</v>
       </c>
       <c r="I8">
-        <v>0.4334289932249598</v>
+        <v>0.4056457917095931</v>
       </c>
       <c r="J8">
-        <v>0.4334289932249598</v>
+        <v>0.405645791709593</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>11.246559</v>
       </c>
       <c r="O8">
-        <v>0.05354730068242562</v>
+        <v>0.04211112362724598</v>
       </c>
       <c r="P8">
-        <v>0.05354730068242562</v>
+        <v>0.04211112362724597</v>
       </c>
       <c r="Q8">
         <v>1243.356459847069</v>
@@ -948,10 +948,10 @@
         <v>11190.20813862362</v>
       </c>
       <c r="S8">
-        <v>0.02320895262469794</v>
+        <v>0.01708220008355475</v>
       </c>
       <c r="T8">
-        <v>0.02320895262469794</v>
+        <v>0.01708220008355474</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>994.9895019999999</v>
       </c>
       <c r="I9">
-        <v>0.4334289932249598</v>
+        <v>0.4056457917095931</v>
       </c>
       <c r="J9">
-        <v>0.4334289932249598</v>
+        <v>0.405645791709593</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.20911666666666</v>
+        <v>40.10810466666667</v>
       </c>
       <c r="N9">
-        <v>60.62734999999999</v>
+        <v>120.324314</v>
       </c>
       <c r="O9">
-        <v>0.2886599305644203</v>
+        <v>0.4505370986999281</v>
       </c>
       <c r="P9">
-        <v>0.2886599305644204</v>
+        <v>0.450537098699928</v>
       </c>
       <c r="Q9">
-        <v>6702.61964267552</v>
+        <v>13302.38102948351</v>
       </c>
       <c r="R9">
-        <v>60323.57678407968</v>
+        <v>119721.4292653516</v>
       </c>
       <c r="S9">
-        <v>0.1251135830889235</v>
+        <v>0.1827584780966754</v>
       </c>
       <c r="T9">
-        <v>0.1251135830889235</v>
+        <v>0.1827584780966754</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>994.9895019999999</v>
       </c>
       <c r="I10">
-        <v>0.4334289932249598</v>
+        <v>0.4056457917095931</v>
       </c>
       <c r="J10">
-        <v>0.4334289932249598</v>
+        <v>0.405645791709593</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.564941666666667</v>
+        <v>2.890218</v>
       </c>
       <c r="N10">
-        <v>13.694825</v>
+        <v>8.670653999999999</v>
       </c>
       <c r="O10">
-        <v>0.06520402481045086</v>
+        <v>0.03246601760797012</v>
       </c>
       <c r="P10">
-        <v>0.06520402481045087</v>
+        <v>0.03246601760797011</v>
       </c>
       <c r="Q10">
-        <v>1514.023011858572</v>
+        <v>958.5788561638118</v>
       </c>
       <c r="R10">
-        <v>13626.20710672715</v>
+        <v>8627.209705474306</v>
       </c>
       <c r="S10">
-        <v>0.02826131482780902</v>
+        <v>0.01316970341624263</v>
       </c>
       <c r="T10">
-        <v>0.02826131482780902</v>
+        <v>0.01316970341624262</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>994.9895019999999</v>
       </c>
       <c r="I11">
-        <v>0.4334289932249598</v>
+        <v>0.4056457917095931</v>
       </c>
       <c r="J11">
-        <v>0.4334289932249598</v>
+        <v>0.405645791709593</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>28.371807</v>
+        <v>29.20445966666667</v>
       </c>
       <c r="N11">
-        <v>85.115421</v>
+        <v>87.61337900000001</v>
       </c>
       <c r="O11">
-        <v>0.4052529347863861</v>
+        <v>0.3280557043687546</v>
       </c>
       <c r="P11">
-        <v>0.4052529347863861</v>
+        <v>0.3280557043687546</v>
       </c>
       <c r="Q11">
-        <v>9409.883372590039</v>
+        <v>9686.04359330525</v>
       </c>
       <c r="R11">
-        <v>84688.95035331033</v>
+        <v>87174.39233974725</v>
       </c>
       <c r="S11">
-        <v>0.1756483715259236</v>
+        <v>0.1330744159235117</v>
       </c>
       <c r="T11">
-        <v>0.1756483715259236</v>
+        <v>0.1330744159235117</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>93.60096233333333</v>
+        <v>98.17454766666667</v>
       </c>
       <c r="H12">
-        <v>280.802887</v>
+        <v>294.523643</v>
       </c>
       <c r="I12">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="J12">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.11540266666667</v>
+        <v>13.07123266666667</v>
       </c>
       <c r="N12">
-        <v>39.346208</v>
+        <v>39.213698</v>
       </c>
       <c r="O12">
-        <v>0.1873358091563171</v>
+        <v>0.1468300556961012</v>
       </c>
       <c r="P12">
-        <v>0.1873358091563171</v>
+        <v>0.1468300556961012</v>
       </c>
       <c r="Q12">
-        <v>1227.614310989166</v>
+        <v>1283.262354495757</v>
       </c>
       <c r="R12">
-        <v>11048.5287989025</v>
+        <v>11549.36119046181</v>
       </c>
       <c r="S12">
-        <v>0.02291510383808454</v>
+        <v>0.01763045836580632</v>
       </c>
       <c r="T12">
-        <v>0.02291510383808454</v>
+        <v>0.01763045836580632</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>93.60096233333333</v>
+        <v>98.17454766666667</v>
       </c>
       <c r="H13">
-        <v>280.802887</v>
+        <v>294.523643</v>
       </c>
       <c r="I13">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="J13">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>11.246559</v>
       </c>
       <c r="O13">
-        <v>0.05354730068242562</v>
+        <v>0.04211112362724598</v>
       </c>
       <c r="P13">
-        <v>0.05354730068242562</v>
+        <v>0.04211112362724597</v>
       </c>
       <c r="Q13">
-        <v>350.8962484462036</v>
+        <v>368.0419475438263</v>
       </c>
       <c r="R13">
-        <v>3158.066236015833</v>
+        <v>3312.377527894437</v>
       </c>
       <c r="S13">
-        <v>0.006549959460036</v>
+        <v>0.005056447117231443</v>
       </c>
       <c r="T13">
-        <v>0.006549959460036002</v>
+        <v>0.005056447117231441</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>93.60096233333333</v>
+        <v>98.17454766666667</v>
       </c>
       <c r="H14">
-        <v>280.802887</v>
+        <v>294.523643</v>
       </c>
       <c r="I14">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="J14">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.20911666666666</v>
+        <v>40.10810466666667</v>
       </c>
       <c r="N14">
-        <v>60.62734999999999</v>
+        <v>120.324314</v>
       </c>
       <c r="O14">
-        <v>0.2886599305644203</v>
+        <v>0.4505370986999281</v>
       </c>
       <c r="P14">
-        <v>0.2886599305644204</v>
+        <v>0.450537098699928</v>
       </c>
       <c r="Q14">
-        <v>1891.592767906605</v>
+        <v>3937.595033417323</v>
       </c>
       <c r="R14">
-        <v>17024.33491115945</v>
+        <v>35438.3553007559</v>
       </c>
       <c r="S14">
-        <v>0.03530917186931697</v>
+        <v>0.0540977494234593</v>
       </c>
       <c r="T14">
-        <v>0.03530917186931697</v>
+        <v>0.05409774942345928</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>93.60096233333333</v>
+        <v>98.17454766666667</v>
       </c>
       <c r="H15">
-        <v>280.802887</v>
+        <v>294.523643</v>
       </c>
       <c r="I15">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="J15">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.564941666666667</v>
+        <v>2.890218</v>
       </c>
       <c r="N15">
-        <v>13.694825</v>
+        <v>8.670653999999999</v>
       </c>
       <c r="O15">
-        <v>0.06520402481045086</v>
+        <v>0.03246601760797012</v>
       </c>
       <c r="P15">
-        <v>0.06520402481045087</v>
+        <v>0.03246601760797011</v>
       </c>
       <c r="Q15">
-        <v>427.2829329955305</v>
+        <v>283.7458448080579</v>
       </c>
       <c r="R15">
-        <v>3845.546396959775</v>
+        <v>2553.712603272522</v>
       </c>
       <c r="S15">
-        <v>0.007975821632402187</v>
+        <v>0.003898321559759858</v>
       </c>
       <c r="T15">
-        <v>0.007975821632402191</v>
+        <v>0.003898321559759857</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>93.60096233333333</v>
+        <v>98.17454766666667</v>
       </c>
       <c r="H16">
-        <v>280.802887</v>
+        <v>294.523643</v>
       </c>
       <c r="I16">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="J16">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>28.371807</v>
+        <v>29.20445966666667</v>
       </c>
       <c r="N16">
-        <v>85.115421</v>
+        <v>87.61337900000001</v>
       </c>
       <c r="O16">
-        <v>0.4052529347863861</v>
+        <v>0.3280557043687546</v>
       </c>
       <c r="P16">
-        <v>0.4052529347863861</v>
+        <v>0.3280557043687546</v>
       </c>
       <c r="Q16">
-        <v>2655.628438335603</v>
+        <v>2867.134617624411</v>
       </c>
       <c r="R16">
-        <v>23900.65594502043</v>
+        <v>25804.2115586197</v>
       </c>
       <c r="S16">
-        <v>0.04957094494181703</v>
+        <v>0.03939092994359038</v>
       </c>
       <c r="T16">
-        <v>0.04957094494181704</v>
+        <v>0.03939092994359036</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>91.31228499999999</v>
+        <v>105.935201</v>
       </c>
       <c r="H17">
-        <v>273.936855</v>
+        <v>317.805603</v>
       </c>
       <c r="I17">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="J17">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.11540266666667</v>
+        <v>13.07123266666667</v>
       </c>
       <c r="N17">
-        <v>39.346208</v>
+        <v>39.213698</v>
       </c>
       <c r="O17">
-        <v>0.1873358091563171</v>
+        <v>0.1468300556961012</v>
       </c>
       <c r="P17">
-        <v>0.1873358091563171</v>
+        <v>0.1468300556961012</v>
       </c>
       <c r="Q17">
-        <v>1197.597386188427</v>
+        <v>1384.703659861099</v>
       </c>
       <c r="R17">
-        <v>10778.37647569584</v>
+        <v>12462.33293874989</v>
       </c>
       <c r="S17">
-        <v>0.02235479679168436</v>
+        <v>0.01902413807950716</v>
       </c>
       <c r="T17">
-        <v>0.02235479679168437</v>
+        <v>0.01902413807950716</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>91.31228499999999</v>
+        <v>105.935201</v>
       </c>
       <c r="H18">
-        <v>273.936855</v>
+        <v>317.805603</v>
       </c>
       <c r="I18">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="J18">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>11.246559</v>
       </c>
       <c r="O18">
-        <v>0.05354730068242562</v>
+        <v>0.04211112362724598</v>
       </c>
       <c r="P18">
-        <v>0.05354730068242562</v>
+        <v>0.04211112362724597</v>
       </c>
       <c r="Q18">
-        <v>342.316333559105</v>
+        <v>397.135496074453</v>
       </c>
       <c r="R18">
-        <v>3080.847002031945</v>
+        <v>3574.219464670077</v>
       </c>
       <c r="S18">
-        <v>0.006389803587951572</v>
+        <v>0.005456156961664876</v>
       </c>
       <c r="T18">
-        <v>0.006389803587951574</v>
+        <v>0.005456156961664873</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>91.31228499999999</v>
+        <v>105.935201</v>
       </c>
       <c r="H19">
-        <v>273.936855</v>
+        <v>317.805603</v>
       </c>
       <c r="I19">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="J19">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.20911666666666</v>
+        <v>40.10810466666667</v>
       </c>
       <c r="N19">
-        <v>60.62734999999999</v>
+        <v>120.324314</v>
       </c>
       <c r="O19">
-        <v>0.2886599305644203</v>
+        <v>0.4505370986999281</v>
       </c>
       <c r="P19">
-        <v>0.2886599305644204</v>
+        <v>0.450537098699928</v>
       </c>
       <c r="Q19">
-        <v>1845.340620664916</v>
+        <v>4248.860129592372</v>
       </c>
       <c r="R19">
-        <v>16608.06558598425</v>
+        <v>38239.74116633135</v>
       </c>
       <c r="S19">
-        <v>0.03444581214200679</v>
+        <v>0.05837415190625422</v>
       </c>
       <c r="T19">
-        <v>0.0344458121420068</v>
+        <v>0.0583741519062542</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>91.31228499999999</v>
+        <v>105.935201</v>
       </c>
       <c r="H20">
-        <v>273.936855</v>
+        <v>317.805603</v>
       </c>
       <c r="I20">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="J20">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.564941666666667</v>
+        <v>2.890218</v>
       </c>
       <c r="N20">
-        <v>13.694825</v>
+        <v>8.670653999999999</v>
       </c>
       <c r="O20">
-        <v>0.06520402481045086</v>
+        <v>0.03246601760797012</v>
       </c>
       <c r="P20">
-        <v>0.06520402481045087</v>
+        <v>0.03246601760797011</v>
       </c>
       <c r="Q20">
-        <v>416.8352544750416</v>
+        <v>306.175824763818</v>
       </c>
       <c r="R20">
-        <v>3751.517290275375</v>
+        <v>2755.582422874362</v>
       </c>
       <c r="S20">
-        <v>0.007780801391907417</v>
+        <v>0.004206482105707834</v>
       </c>
       <c r="T20">
-        <v>0.00778080139190742</v>
+        <v>0.004206482105707832</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>91.31228499999999</v>
+        <v>105.935201</v>
       </c>
       <c r="H21">
-        <v>273.936855</v>
+        <v>317.805603</v>
       </c>
       <c r="I21">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="J21">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>28.371807</v>
+        <v>29.20445966666667</v>
       </c>
       <c r="N21">
-        <v>85.115421</v>
+        <v>87.61337900000001</v>
       </c>
       <c r="O21">
-        <v>0.4052529347863861</v>
+        <v>0.3280557043687546</v>
       </c>
       <c r="P21">
-        <v>0.4052529347863861</v>
+        <v>0.3280557043687546</v>
       </c>
       <c r="Q21">
-        <v>2590.694526748995</v>
+        <v>3093.780304884727</v>
       </c>
       <c r="R21">
-        <v>23316.25074074095</v>
+        <v>27844.02274396254</v>
       </c>
       <c r="S21">
-        <v>0.04835886447541943</v>
+        <v>0.04250476503665105</v>
       </c>
       <c r="T21">
-        <v>0.04835886447541943</v>
+        <v>0.04250476503665104</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>92.30992399999998</v>
+        <v>112.249611</v>
       </c>
       <c r="H22">
-        <v>276.929772</v>
+        <v>336.748833</v>
       </c>
       <c r="I22">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825315</v>
       </c>
       <c r="J22">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825314</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.11540266666667</v>
+        <v>13.07123266666667</v>
       </c>
       <c r="N22">
-        <v>39.346208</v>
+        <v>39.213698</v>
       </c>
       <c r="O22">
-        <v>0.1873358091563171</v>
+        <v>0.1468300556961012</v>
       </c>
       <c r="P22">
-        <v>0.1873358091563171</v>
+        <v>0.1468300556961012</v>
       </c>
       <c r="Q22">
-        <v>1210.681823389397</v>
+        <v>1467.240782123826</v>
       </c>
       <c r="R22">
-        <v>10896.13641050458</v>
+        <v>13205.16703911443</v>
       </c>
       <c r="S22">
-        <v>0.02259903574722533</v>
+        <v>0.02015809739233861</v>
       </c>
       <c r="T22">
-        <v>0.02259903574722533</v>
+        <v>0.0201580973923386</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>92.30992399999998</v>
+        <v>112.249611</v>
       </c>
       <c r="H23">
-        <v>276.929772</v>
+        <v>336.748833</v>
       </c>
       <c r="I23">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825315</v>
       </c>
       <c r="J23">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825314</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>11.246559</v>
       </c>
       <c r="O23">
-        <v>0.05354730068242562</v>
+        <v>0.04211112362724598</v>
       </c>
       <c r="P23">
-        <v>0.05354730068242562</v>
+        <v>0.04211112362724597</v>
       </c>
       <c r="Q23">
-        <v>346.0563355171719</v>
+        <v>420.807290946183</v>
       </c>
       <c r="R23">
-        <v>3114.507019654548</v>
+        <v>3787.265618515647</v>
       </c>
       <c r="S23">
-        <v>0.006459615851018698</v>
+        <v>0.005781378528765185</v>
       </c>
       <c r="T23">
-        <v>0.0064596158510187</v>
+        <v>0.005781378528765183</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>92.30992399999998</v>
+        <v>112.249611</v>
       </c>
       <c r="H24">
-        <v>276.929772</v>
+        <v>336.748833</v>
       </c>
       <c r="I24">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825315</v>
       </c>
       <c r="J24">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825314</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>20.20911666666666</v>
+        <v>40.10810466666667</v>
       </c>
       <c r="N24">
-        <v>60.62734999999999</v>
+        <v>120.324314</v>
       </c>
       <c r="O24">
-        <v>0.2886599305644203</v>
+        <v>0.4505370986999281</v>
       </c>
       <c r="P24">
-        <v>0.2886599305644204</v>
+        <v>0.450537098699928</v>
       </c>
       <c r="Q24">
-        <v>1865.502023607133</v>
+        <v>4502.119146780618</v>
       </c>
       <c r="R24">
-        <v>16789.51821246419</v>
+        <v>40519.07232102557</v>
       </c>
       <c r="S24">
-        <v>0.03482215236369261</v>
+        <v>0.06185362166756963</v>
       </c>
       <c r="T24">
-        <v>0.03482215236369262</v>
+        <v>0.06185362166756961</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>92.30992399999998</v>
+        <v>112.249611</v>
       </c>
       <c r="H25">
-        <v>276.929772</v>
+        <v>336.748833</v>
       </c>
       <c r="I25">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825315</v>
       </c>
       <c r="J25">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825314</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.564941666666667</v>
+        <v>2.890218</v>
       </c>
       <c r="N25">
-        <v>13.694825</v>
+        <v>8.670653999999999</v>
       </c>
       <c r="O25">
-        <v>0.06520402481045086</v>
+        <v>0.03246601760797012</v>
       </c>
       <c r="P25">
-        <v>0.06520402481045087</v>
+        <v>0.03246601760797011</v>
       </c>
       <c r="Q25">
-        <v>421.3894183144333</v>
+        <v>324.425846205198</v>
       </c>
       <c r="R25">
-        <v>3792.504764829899</v>
+        <v>2919.832615846782</v>
       </c>
       <c r="S25">
-        <v>0.007865811102482736</v>
+        <v>0.004457215123839385</v>
       </c>
       <c r="T25">
-        <v>0.00786581110248274</v>
+        <v>0.004457215123839384</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>92.30992399999998</v>
+        <v>112.249611</v>
       </c>
       <c r="H26">
-        <v>276.929772</v>
+        <v>336.748833</v>
       </c>
       <c r="I26">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825315</v>
       </c>
       <c r="J26">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825314</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>28.371807</v>
+        <v>29.20445966666667</v>
       </c>
       <c r="N26">
-        <v>85.115421</v>
+        <v>87.61337900000001</v>
       </c>
       <c r="O26">
-        <v>0.4052529347863861</v>
+        <v>0.3280557043687546</v>
       </c>
       <c r="P26">
-        <v>0.4052529347863861</v>
+        <v>0.3280557043687546</v>
       </c>
       <c r="Q26">
-        <v>2618.999347912667</v>
+        <v>3278.189237048523</v>
       </c>
       <c r="R26">
-        <v>23570.99413121401</v>
+        <v>29503.70313343671</v>
       </c>
       <c r="S26">
-        <v>0.04888721276060792</v>
+        <v>0.04503831867001867</v>
       </c>
       <c r="T26">
-        <v>0.04888721276060792</v>
+        <v>0.04503831867001866</v>
       </c>
     </row>
   </sheetData>
